--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mst1</t>
+  </si>
+  <si>
+    <t>Mst1r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mst1</t>
-  </si>
-  <si>
-    <t>Mst1r</t>
   </si>
 </sst>
 </file>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3027976666666667</v>
+        <v>0.99836</v>
       </c>
       <c r="H2">
-        <v>0.908393</v>
+        <v>2.99508</v>
       </c>
       <c r="I2">
-        <v>0.1119125163607406</v>
+        <v>0.4070747013772281</v>
       </c>
       <c r="J2">
-        <v>0.1185599733538192</v>
+        <v>0.4149583861196178</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.574263333333333</v>
+        <v>0.023321</v>
       </c>
       <c r="N2">
-        <v>7.72279</v>
+        <v>0.069963</v>
       </c>
       <c r="O2">
-        <v>0.65042012319661</v>
+        <v>0.006932688767578644</v>
       </c>
       <c r="P2">
-        <v>0.7147042813273965</v>
+        <v>0.007074658206833062</v>
       </c>
       <c r="Q2">
-        <v>0.7794809307188889</v>
+        <v>0.02328275356</v>
       </c>
       <c r="R2">
-        <v>7.01532837647</v>
+        <v>0.20954478204</v>
       </c>
       <c r="S2">
-        <v>0.07279015267859551</v>
+        <v>0.00282212220980334</v>
       </c>
       <c r="T2">
-        <v>0.0847353205500366</v>
+        <v>0.002935688751855357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3027976666666667</v>
+        <v>0.99836</v>
       </c>
       <c r="H3">
-        <v>0.908393</v>
+        <v>2.99508</v>
       </c>
       <c r="I3">
-        <v>0.1119125163607406</v>
+        <v>0.4070747013772281</v>
       </c>
       <c r="J3">
-        <v>0.1185599733538192</v>
+        <v>0.4149583861196178</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.160691</v>
+        <v>2.574263333333333</v>
       </c>
       <c r="N3">
-        <v>0.482073</v>
+        <v>7.72279</v>
       </c>
       <c r="O3">
-        <v>0.04060060937171144</v>
+        <v>0.7652573429865597</v>
       </c>
       <c r="P3">
-        <v>0.04461336343631538</v>
+        <v>0.78092848581605</v>
       </c>
       <c r="Q3">
-        <v>0.04865685985433334</v>
+        <v>2.570041541466666</v>
       </c>
       <c r="R3">
-        <v>0.437911738689</v>
+        <v>23.1303738732</v>
       </c>
       <c r="S3">
-        <v>0.004543716360567693</v>
+        <v>0.3115169043729848</v>
       </c>
       <c r="T3">
-        <v>0.005289359180233801</v>
+        <v>0.324052824149065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3027976666666667</v>
+        <v>0.99836</v>
       </c>
       <c r="H4">
-        <v>0.908393</v>
+        <v>2.99508</v>
       </c>
       <c r="I4">
-        <v>0.1119125163607406</v>
+        <v>0.4070747013772281</v>
       </c>
       <c r="J4">
-        <v>0.1185599733538192</v>
+        <v>0.4149583861196178</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.067967</v>
+        <v>0.152617</v>
       </c>
       <c r="N4">
-        <v>2.135934</v>
+        <v>0.457851</v>
       </c>
       <c r="O4">
-        <v>0.2698353422959503</v>
+        <v>0.04536881615889327</v>
       </c>
       <c r="P4">
-        <v>0.1976696471654352</v>
+        <v>0.04629789080880929</v>
       </c>
       <c r="Q4">
-        <v>0.323377915677</v>
+        <v>0.15236670812</v>
       </c>
       <c r="R4">
-        <v>1.940267494062</v>
+        <v>1.37130037308</v>
       </c>
       <c r="S4">
-        <v>0.03019795215940156</v>
+        <v>0.01846849728971984</v>
       </c>
       <c r="T4">
-        <v>0.02343570810079283</v>
+        <v>0.01921169805076579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,75 +711,75 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3027976666666667</v>
+        <v>0.99836</v>
       </c>
       <c r="H5">
-        <v>0.908393</v>
+        <v>2.99508</v>
       </c>
       <c r="I5">
-        <v>0.1119125163607406</v>
+        <v>0.4070747013772281</v>
       </c>
       <c r="J5">
-        <v>0.1185599733538192</v>
+        <v>0.4149583861196178</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1549256666666667</v>
+        <v>0.2025145</v>
       </c>
       <c r="N5">
-        <v>0.464777</v>
+        <v>0.405029</v>
       </c>
       <c r="O5">
-        <v>0.03914392513572826</v>
+        <v>0.06020196387040887</v>
       </c>
       <c r="P5">
-        <v>0.04301270807085307</v>
+        <v>0.04095653043545</v>
       </c>
       <c r="Q5">
-        <v>0.04691113037344444</v>
+        <v>0.20218237622</v>
       </c>
       <c r="R5">
-        <v>0.422200173361</v>
+        <v>1.21309425732</v>
       </c>
       <c r="S5">
-        <v>0.004380695162175792</v>
+        <v>0.02450669646486937</v>
       </c>
       <c r="T5">
-        <v>0.005099585522755943</v>
+        <v>0.01699525577055334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9983599999999999</v>
+        <v>0.99836</v>
       </c>
       <c r="H6">
         <v>2.99508</v>
       </c>
       <c r="I6">
-        <v>0.3689889062352162</v>
+        <v>0.4070747013772281</v>
       </c>
       <c r="J6">
-        <v>0.3909063643076914</v>
+        <v>0.4149583861196178</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.574263333333333</v>
+        <v>0.4112026666666667</v>
       </c>
       <c r="N6">
-        <v>7.72279</v>
+        <v>1.233608</v>
       </c>
       <c r="O6">
-        <v>0.65042012319661</v>
+        <v>0.1222391882165596</v>
       </c>
       <c r="P6">
-        <v>0.7147042813273965</v>
+        <v>0.1247424347328577</v>
       </c>
       <c r="Q6">
-        <v>2.570041541466666</v>
+        <v>0.4105282942933333</v>
       </c>
       <c r="R6">
-        <v>23.1303738732</v>
+        <v>3.69475464864</v>
       </c>
       <c r="S6">
-        <v>0.2399978098516917</v>
+        <v>0.04976048103985076</v>
       </c>
       <c r="T6">
-        <v>0.279382452168834</v>
+        <v>0.05176291939737838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9983599999999999</v>
+        <v>0.5067586666666667</v>
       </c>
       <c r="H7">
-        <v>2.99508</v>
+        <v>1.520276</v>
       </c>
       <c r="I7">
-        <v>0.3689889062352162</v>
+        <v>0.206627502006947</v>
       </c>
       <c r="J7">
-        <v>0.3909063643076914</v>
+        <v>0.210629190344294</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.160691</v>
+        <v>0.023321</v>
       </c>
       <c r="N7">
-        <v>0.482073</v>
+        <v>0.069963</v>
       </c>
       <c r="O7">
-        <v>0.04060060937171144</v>
+        <v>0.006932688767578644</v>
       </c>
       <c r="P7">
-        <v>0.04461336343631538</v>
+        <v>0.007074658206833062</v>
       </c>
       <c r="Q7">
-        <v>0.16042746676</v>
+        <v>0.01181811886533333</v>
       </c>
       <c r="R7">
-        <v>1.44384720084</v>
+        <v>0.106363069788</v>
       </c>
       <c r="S7">
-        <v>0.01498117444455107</v>
+        <v>0.001432484162236395</v>
       </c>
       <c r="T7">
-        <v>0.01743964770042774</v>
+        <v>0.001490129530067863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9983599999999999</v>
+        <v>0.5067586666666667</v>
       </c>
       <c r="H8">
-        <v>2.99508</v>
+        <v>1.520276</v>
       </c>
       <c r="I8">
-        <v>0.3689889062352162</v>
+        <v>0.206627502006947</v>
       </c>
       <c r="J8">
-        <v>0.3909063643076914</v>
+        <v>0.210629190344294</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.067967</v>
+        <v>2.574263333333333</v>
       </c>
       <c r="N8">
-        <v>2.135934</v>
+        <v>7.72279</v>
       </c>
       <c r="O8">
-        <v>0.2698353422959503</v>
+        <v>0.7652573429865597</v>
       </c>
       <c r="P8">
-        <v>0.1976696471654352</v>
+        <v>0.78092848581605</v>
       </c>
       <c r="Q8">
-        <v>1.06621553412</v>
+        <v>1.304530254448889</v>
       </c>
       <c r="R8">
-        <v>6.397293204719999</v>
+        <v>11.74077229004</v>
       </c>
       <c r="S8">
-        <v>0.09956624781738789</v>
+        <v>0.1581232131737863</v>
       </c>
       <c r="T8">
-        <v>0.07727032310742443</v>
+        <v>0.1644863346842301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9983599999999999</v>
+        <v>0.5067586666666667</v>
       </c>
       <c r="H9">
-        <v>2.99508</v>
+        <v>1.520276</v>
       </c>
       <c r="I9">
-        <v>0.3689889062352162</v>
+        <v>0.206627502006947</v>
       </c>
       <c r="J9">
-        <v>0.3909063643076914</v>
+        <v>0.210629190344294</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,43 +992,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1549256666666667</v>
+        <v>0.152617</v>
       </c>
       <c r="N9">
-        <v>0.464777</v>
+        <v>0.457851</v>
       </c>
       <c r="O9">
-        <v>0.03914392513572826</v>
+        <v>0.04536881615889327</v>
       </c>
       <c r="P9">
-        <v>0.04301270807085307</v>
+        <v>0.04629789080880929</v>
       </c>
       <c r="Q9">
-        <v>0.1546715885733333</v>
+        <v>0.07733998743066667</v>
       </c>
       <c r="R9">
-        <v>1.39204429716</v>
+        <v>0.696059886876</v>
       </c>
       <c r="S9">
-        <v>0.01444367412158556</v>
+        <v>0.009374445151924531</v>
       </c>
       <c r="T9">
-        <v>0.01681394133100527</v>
+        <v>0.009751687255708031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,60 +1036,60 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4916246666666667</v>
+        <v>0.5067586666666667</v>
       </c>
       <c r="H10">
-        <v>1.474874</v>
+        <v>1.520276</v>
       </c>
       <c r="I10">
-        <v>0.181702039376163</v>
+        <v>0.206627502006947</v>
       </c>
       <c r="J10">
-        <v>0.1924949026910607</v>
+        <v>0.210629190344294</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.574263333333333</v>
+        <v>0.2025145</v>
       </c>
       <c r="N10">
-        <v>7.72279</v>
+        <v>0.405029</v>
       </c>
       <c r="O10">
-        <v>0.65042012319661</v>
+        <v>0.06020196387040887</v>
       </c>
       <c r="P10">
-        <v>0.7147042813273965</v>
+        <v>0.04095653043545</v>
       </c>
       <c r="Q10">
-        <v>1.265571353162222</v>
+        <v>0.1026259780006667</v>
       </c>
       <c r="R10">
-        <v>11.39014217846</v>
+        <v>0.615755868004</v>
       </c>
       <c r="S10">
-        <v>0.1181826628361192</v>
+        <v>0.01243938141045506</v>
       </c>
       <c r="T10">
-        <v>0.1375769310870016</v>
+        <v>0.00862664084493027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4916246666666667</v>
+        <v>0.5067586666666667</v>
       </c>
       <c r="H11">
-        <v>1.474874</v>
+        <v>1.520276</v>
       </c>
       <c r="I11">
-        <v>0.181702039376163</v>
+        <v>0.206627502006947</v>
       </c>
       <c r="J11">
-        <v>0.1924949026910607</v>
+        <v>0.210629190344294</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.160691</v>
+        <v>0.4112026666666667</v>
       </c>
       <c r="N11">
-        <v>0.482073</v>
+        <v>1.233608</v>
       </c>
       <c r="O11">
-        <v>0.04060060937171144</v>
+        <v>0.1222391882165596</v>
       </c>
       <c r="P11">
-        <v>0.04461336343631538</v>
+        <v>0.1247424347328577</v>
       </c>
       <c r="Q11">
-        <v>0.07899965931133333</v>
+        <v>0.2083805150897778</v>
       </c>
       <c r="R11">
-        <v>0.710996933802</v>
+        <v>1.875424635808</v>
       </c>
       <c r="S11">
-        <v>0.007377213522754925</v>
+        <v>0.02525797810854474</v>
       </c>
       <c r="T11">
-        <v>0.008587845053394452</v>
+        <v>0.02627439802935775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4916246666666667</v>
+        <v>0.1397845</v>
       </c>
       <c r="H12">
-        <v>1.474874</v>
+        <v>0.279569</v>
       </c>
       <c r="I12">
-        <v>0.181702039376163</v>
+        <v>0.05699620737475975</v>
       </c>
       <c r="J12">
-        <v>0.1924949026910607</v>
+        <v>0.03873335638750065</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.067967</v>
+        <v>0.023321</v>
       </c>
       <c r="N12">
-        <v>2.135934</v>
+        <v>0.069963</v>
       </c>
       <c r="O12">
-        <v>0.2698353422959503</v>
+        <v>0.006932688767578644</v>
       </c>
       <c r="P12">
-        <v>0.1976696471654352</v>
+        <v>0.007074658206833062</v>
       </c>
       <c r="Q12">
-        <v>0.525038920386</v>
+        <v>0.0032599143245</v>
       </c>
       <c r="R12">
-        <v>3.150233522316</v>
+        <v>0.019559485947</v>
       </c>
       <c r="S12">
-        <v>0.04902963199093918</v>
+        <v>0.00039513696666158</v>
       </c>
       <c r="T12">
-        <v>0.03805039949608675</v>
+        <v>0.0002740252576450213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,72 +1207,72 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4916246666666667</v>
+        <v>0.1397845</v>
       </c>
       <c r="H13">
-        <v>1.474874</v>
+        <v>0.279569</v>
       </c>
       <c r="I13">
-        <v>0.181702039376163</v>
+        <v>0.05699620737475975</v>
       </c>
       <c r="J13">
-        <v>0.1924949026910607</v>
+        <v>0.03873335638750065</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1549256666666667</v>
+        <v>2.574263333333333</v>
       </c>
       <c r="N13">
-        <v>0.464777</v>
+        <v>7.72279</v>
       </c>
       <c r="O13">
-        <v>0.03914392513572826</v>
+        <v>0.7652573429865597</v>
       </c>
       <c r="P13">
-        <v>0.04301270807085307</v>
+        <v>0.78092848581605</v>
       </c>
       <c r="Q13">
-        <v>0.0761652792331111</v>
+        <v>0.3598421129183333</v>
       </c>
       <c r="R13">
-        <v>0.685487513098</v>
+        <v>2.15905267751</v>
       </c>
       <c r="S13">
-        <v>0.007112531026349673</v>
+        <v>0.0436167662159196</v>
       </c>
       <c r="T13">
-        <v>0.008279727054577862</v>
+        <v>0.03024798135426431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1284,57 +1284,57 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.455106</v>
+        <v>0.1397845</v>
       </c>
       <c r="H14">
-        <v>0.910212</v>
+        <v>0.279569</v>
       </c>
       <c r="I14">
-        <v>0.1682049212319046</v>
+        <v>0.05699620737475975</v>
       </c>
       <c r="J14">
-        <v>0.1187973822633226</v>
+        <v>0.03873335638750065</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.574263333333333</v>
+        <v>0.152617</v>
       </c>
       <c r="N14">
-        <v>7.72279</v>
+        <v>0.457851</v>
       </c>
       <c r="O14">
-        <v>0.65042012319661</v>
+        <v>0.04536881615889327</v>
       </c>
       <c r="P14">
-        <v>0.7147042813273965</v>
+        <v>0.04629789080880929</v>
       </c>
       <c r="Q14">
-        <v>1.17156268858</v>
+        <v>0.0213334910365</v>
       </c>
       <c r="R14">
-        <v>7.02937613148</v>
+        <v>0.128000946219</v>
       </c>
       <c r="S14">
-        <v>0.1094038655899315</v>
+        <v>0.002585850454139632</v>
       </c>
       <c r="T14">
-        <v>0.08490499771408401</v>
+        <v>0.001793272704687201</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,57 +1346,57 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.455106</v>
+        <v>0.1397845</v>
       </c>
       <c r="H15">
-        <v>0.910212</v>
+        <v>0.279569</v>
       </c>
       <c r="I15">
-        <v>0.1682049212319046</v>
+        <v>0.05699620737475975</v>
       </c>
       <c r="J15">
-        <v>0.1187973822633226</v>
+        <v>0.03873335638750065</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.160691</v>
+        <v>0.2025145</v>
       </c>
       <c r="N15">
-        <v>0.482073</v>
+        <v>0.405029</v>
       </c>
       <c r="O15">
-        <v>0.04060060937171144</v>
+        <v>0.06020196387040887</v>
       </c>
       <c r="P15">
-        <v>0.04461336343631538</v>
+        <v>0.04095653043545</v>
       </c>
       <c r="Q15">
-        <v>0.07313143824600001</v>
+        <v>0.02830838812525</v>
       </c>
       <c r="R15">
-        <v>0.438788629476</v>
+        <v>0.113233552501</v>
       </c>
       <c r="S15">
-        <v>0.006829222301336053</v>
+        <v>0.003431283617125618</v>
       </c>
       <c r="T15">
-        <v>0.0052999507901965</v>
+        <v>0.001586383889751802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.455106</v>
+        <v>0.1397845</v>
       </c>
       <c r="H16">
-        <v>0.910212</v>
+        <v>0.279569</v>
       </c>
       <c r="I16">
-        <v>0.1682049212319046</v>
+        <v>0.05699620737475975</v>
       </c>
       <c r="J16">
-        <v>0.1187973822633226</v>
+        <v>0.03873335638750065</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.067967</v>
+        <v>0.4112026666666667</v>
       </c>
       <c r="N16">
-        <v>2.135934</v>
+        <v>1.233608</v>
       </c>
       <c r="O16">
-        <v>0.2698353422959503</v>
+        <v>0.1222391882165596</v>
       </c>
       <c r="P16">
-        <v>0.1976696471654352</v>
+        <v>0.1247424347328577</v>
       </c>
       <c r="Q16">
-        <v>0.486038189502</v>
+        <v>0.05747975915866667</v>
       </c>
       <c r="R16">
-        <v>1.944152758008</v>
+        <v>0.344878554952</v>
       </c>
       <c r="S16">
-        <v>0.04538763249647434</v>
+        <v>0.006967170120913318</v>
       </c>
       <c r="T16">
-        <v>0.02348263663616832</v>
+        <v>0.004831693181152315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,75 +1455,75 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.455106</v>
+        <v>0.8076196666666666</v>
       </c>
       <c r="H17">
-        <v>0.910212</v>
+        <v>2.422859</v>
       </c>
       <c r="I17">
-        <v>0.1682049212319046</v>
+        <v>0.3293015892410652</v>
       </c>
       <c r="J17">
-        <v>0.1187973822633226</v>
+        <v>0.3356790671485874</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1549256666666667</v>
+        <v>0.023321</v>
       </c>
       <c r="N17">
-        <v>0.464777</v>
+        <v>0.069963</v>
       </c>
       <c r="O17">
-        <v>0.03914392513572826</v>
+        <v>0.006932688767578644</v>
       </c>
       <c r="P17">
-        <v>0.04301270807085307</v>
+        <v>0.007074658206833062</v>
       </c>
       <c r="Q17">
-        <v>0.07050760045399999</v>
+        <v>0.01883449824633333</v>
       </c>
       <c r="R17">
-        <v>0.423045602724</v>
+        <v>0.169510484217</v>
       </c>
       <c r="S17">
-        <v>0.006584200844162744</v>
+        <v>0.002282945428877329</v>
       </c>
       <c r="T17">
-        <v>0.005109797122873835</v>
+        <v>0.00237481466726482</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4577756666666667</v>
+        <v>0.8076196666666666</v>
       </c>
       <c r="H18">
-        <v>1.373327</v>
+        <v>2.422859</v>
       </c>
       <c r="I18">
-        <v>0.1691916167959757</v>
+        <v>0.3293015892410652</v>
       </c>
       <c r="J18">
-        <v>0.1792413773841063</v>
+        <v>0.3356790671485874</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,36 +1556,36 @@
         <v>7.72279</v>
       </c>
       <c r="O18">
-        <v>0.65042012319661</v>
+        <v>0.7652573429865597</v>
       </c>
       <c r="P18">
-        <v>0.7147042813273965</v>
+        <v>0.78092848581605</v>
       </c>
       <c r="Q18">
-        <v>1.178435113592222</v>
+        <v>2.079025695178889</v>
       </c>
       <c r="R18">
-        <v>10.60591602233</v>
+        <v>18.71123125661</v>
       </c>
       <c r="S18">
-        <v>0.1100456322402722</v>
+        <v>0.252000459223869</v>
       </c>
       <c r="T18">
-        <v>0.1281045798074403</v>
+        <v>0.2621413456284905</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4577756666666667</v>
+        <v>0.8076196666666666</v>
       </c>
       <c r="H19">
-        <v>1.373327</v>
+        <v>2.422859</v>
       </c>
       <c r="I19">
-        <v>0.1691916167959757</v>
+        <v>0.3293015892410652</v>
       </c>
       <c r="J19">
-        <v>0.1792413773841063</v>
+        <v>0.3356790671485874</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,42 +1612,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.160691</v>
+        <v>0.152617</v>
       </c>
       <c r="N19">
-        <v>0.482073</v>
+        <v>0.457851</v>
       </c>
       <c r="O19">
-        <v>0.04060060937171144</v>
+        <v>0.04536881615889327</v>
       </c>
       <c r="P19">
-        <v>0.04461336343631538</v>
+        <v>0.04629789080880929</v>
       </c>
       <c r="Q19">
-        <v>0.07356042965233335</v>
+        <v>0.1232564906676667</v>
       </c>
       <c r="R19">
-        <v>0.662043866871</v>
+        <v>1.109308416009</v>
       </c>
       <c r="S19">
-        <v>0.006869282742501702</v>
+        <v>0.01494002326310927</v>
       </c>
       <c r="T19">
-        <v>0.007996560712062891</v>
+        <v>0.01554123279764826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4577756666666667</v>
+        <v>0.8076196666666666</v>
       </c>
       <c r="H20">
-        <v>1.373327</v>
+        <v>2.422859</v>
       </c>
       <c r="I20">
-        <v>0.1691916167959757</v>
+        <v>0.3293015892410652</v>
       </c>
       <c r="J20">
-        <v>0.1792413773841063</v>
+        <v>0.3356790671485874</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,42 +1674,42 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.067967</v>
+        <v>0.2025145</v>
       </c>
       <c r="N20">
-        <v>2.135934</v>
+        <v>0.405029</v>
       </c>
       <c r="O20">
-        <v>0.2698353422959503</v>
+        <v>0.06020196387040887</v>
       </c>
       <c r="P20">
-        <v>0.1976696471654352</v>
+        <v>0.04095653043545</v>
       </c>
       <c r="Q20">
-        <v>0.488889305403</v>
+        <v>0.1635546929851666</v>
       </c>
       <c r="R20">
-        <v>2.933335832418</v>
+        <v>0.9813281579109999</v>
       </c>
       <c r="S20">
-        <v>0.04565387783174736</v>
+        <v>0.01982460237795883</v>
       </c>
       <c r="T20">
-        <v>0.0354305798249629</v>
+        <v>0.01374824993021458</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4577756666666667</v>
+        <v>0.8076196666666666</v>
       </c>
       <c r="H21">
-        <v>1.373327</v>
+        <v>2.422859</v>
       </c>
       <c r="I21">
-        <v>0.1691916167959757</v>
+        <v>0.3293015892410652</v>
       </c>
       <c r="J21">
-        <v>0.1792413773841063</v>
+        <v>0.3356790671485874</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1549256666666667</v>
+        <v>0.4112026666666667</v>
       </c>
       <c r="N21">
-        <v>0.464777</v>
+        <v>1.233608</v>
       </c>
       <c r="O21">
-        <v>0.03914392513572826</v>
+        <v>0.1222391882165596</v>
       </c>
       <c r="P21">
-        <v>0.04301270807085307</v>
+        <v>0.1247424347328577</v>
       </c>
       <c r="Q21">
-        <v>0.07092120034211112</v>
+        <v>0.3320953605857778</v>
       </c>
       <c r="R21">
-        <v>0.6382908030790001</v>
+        <v>2.988858245272</v>
       </c>
       <c r="S21">
-        <v>0.006622823981454497</v>
+        <v>0.04025355894725075</v>
       </c>
       <c r="T21">
-        <v>0.007709657039640168</v>
+        <v>0.0418734241249692</v>
       </c>
     </row>
   </sheetData>
